--- a/Excel/Monster.xlsx
+++ b/Excel/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10930" windowHeight="9840"/>
+    <workbookView windowWidth="14750" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,12 @@
     <t>生命值</t>
   </si>
   <si>
+    <t>行动0</t>
+  </si>
+  <si>
+    <t>行动0数值</t>
+  </si>
+  <si>
     <t>行动1</t>
   </si>
   <si>
@@ -56,12 +62,6 @@
     <t>行动2数值</t>
   </si>
   <si>
-    <t>行动3</t>
-  </si>
-  <si>
-    <t>行动3数值</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -71,6 +71,12 @@
     <t>maxHP</t>
   </si>
   <si>
+    <t>actionType_0</t>
+  </si>
+  <si>
+    <t>actionValue_0</t>
+  </si>
+  <si>
     <t>actionType_1</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
     <t>actionValue_2</t>
   </si>
   <si>
-    <t>actionType_3</t>
-  </si>
-  <si>
-    <t>actionValue_3</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -107,13 +107,13 @@
     <t>小怪A</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>Heal</t>
+    <t>SingleAttack</t>
+  </si>
+  <si>
+    <t>SelfBlock</t>
+  </si>
+  <si>
+    <t>SelfHeal</t>
   </si>
   <si>
     <t>小怪B</t>
@@ -736,10 +736,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1063,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1184,23 +1187,23 @@
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1219,7 +1222,7 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G6">

--- a/Excel/Monster.xlsx
+++ b/Excel/Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14750" windowHeight="9840"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Monster" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>TTTT</t>
   </si>
@@ -50,18 +50,27 @@
     <t>行动0数值</t>
   </si>
   <si>
+    <t>行动0次数</t>
+  </si>
+  <si>
     <t>行动1</t>
   </si>
   <si>
     <t>行动1数值</t>
   </si>
   <si>
+    <t>行动1次数</t>
+  </si>
+  <si>
     <t>行动2</t>
   </si>
   <si>
     <t>行动2数值</t>
   </si>
   <si>
+    <t>行动2次数</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -77,27 +86,33 @@
     <t>actionValue_0</t>
   </si>
   <si>
+    <t>actionTime_0</t>
+  </si>
+  <si>
     <t>actionType_1</t>
   </si>
   <si>
     <t>actionValue_1</t>
   </si>
   <si>
+    <t>actionTime_1</t>
+  </si>
+  <si>
     <t>actionType_2</t>
   </si>
   <si>
     <t>actionValue_2</t>
   </si>
   <si>
+    <t>actionTime_2</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>enum|MonsterAction</t>
   </si>
   <si>
@@ -123,6 +138,9 @@
   </si>
   <si>
     <t>3|3</t>
+  </si>
+  <si>
+    <t>1|1</t>
   </si>
 </sst>
 </file>
@@ -1063,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1075,10 +1093,12 @@
     <col min="3" max="3" width="12.2833333333333" customWidth="1"/>
     <col min="4" max="4" width="17.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="12.5833333333333" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12.8333333333333" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="9" width="12.5833333333333" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="12.8333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1090,7 +1110,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1118,115 +1138,157 @@
       <c r="I2" t="s">
         <v>10</v>
       </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Monster.xlsx
+++ b/Excel/Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>TTTT</t>
   </si>
@@ -71,6 +71,9 @@
     <t>行动2次数</t>
   </si>
   <si>
+    <t>图片路径</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -107,6 +110,9 @@
     <t>actionTime_2</t>
   </si>
   <si>
+    <t>iconUrl</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>SelfHeal</t>
   </si>
   <si>
+    <t>monster1001</t>
+  </si>
+  <si>
     <t>小怪B</t>
   </si>
   <si>
@@ -141,6 +150,9 @@
   </si>
   <si>
     <t>1|1</t>
+  </si>
+  <si>
+    <t>monster1002</t>
   </si>
 </sst>
 </file>
@@ -1081,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1099,6 +1111,7 @@
     <col min="10" max="10" width="18" customWidth="1"/>
     <col min="11" max="11" width="12.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="13.8333333333333" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1110,7 +1123,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1147,95 +1160,104 @@
       <c r="L2" t="s">
         <v>13</v>
       </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1244,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1253,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1261,34 +1283,40 @@
       <c r="L5">
         <v>1</v>
       </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
         <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
